--- a/Testy manualne _aggregation.xlsx
+++ b/Testy manualne _aggregation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Documents\GitHub\Testy-manualne-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8B5890-97D3-4564-B91B-BF3F2DAF7BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41A168-B0B9-412B-B7CD-79ED6F1F5C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>LP</t>
   </si>
   <si>
     <t>Endpointy</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/co2</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_daily</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rtt</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rtt_export</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/gas_price_rdn_daily</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/prices/gas_price_rtt</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/energy/production_per_fuel_entsoe</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/energy/load</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/energy/energy_non_emissive_percentage</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/energy/installed_capacity_are</t>
-  </si>
-  <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/energy/installed_capacity_entsoe</t>
   </si>
   <si>
     <t>Czynności:</t>
@@ -78,10 +42,10 @@
     <t>?date_from=01-01-2019T00:00:00Z&amp;date_to=13-04-2023T00:00:00Z&amp;hour_ago=72&amp;days_ago=24</t>
   </si>
   <si>
-    <t>https://energy-instrat-api.azurewebsites.net/api/energy/production_per_fuel_are</t>
+    <t xml:space="preserve">Zmiana parametrów w date_from; date_to; hour_ago;days_ago - we wszystkich kombinacjach zapewniających jak największe pokrycie </t>
   </si>
   <si>
-    <t xml:space="preserve">Zmiana parametrów w date_from; date_to; hour_ago;days_ago - we wszystkich kombinacjach zapewniających jak największe pokrycie </t>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -212,6 +176,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -224,7 +189,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -508,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,25 +484,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -546,22 +510,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -570,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -582,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -597,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -606,10 +570,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -618,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -630,10 +594,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -642,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -654,10 +618,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -666,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -678,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -690,10 +654,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -725,19 +689,19 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{411A9C9F-4C29-44BA-B867-C47810983CD6}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{EE5F9FD7-AACA-4B2A-8238-9C45EABB2EB1}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{B9BC5738-E6B6-4586-8BB7-B81C15979FD6}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{2C6769B1-E5C8-41C6-B6F3-AF070EDBEE23}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{63A7F9D1-AF21-4BAE-8799-D986A46F7DB3}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{24C78198-A4B3-4DED-BB3C-FE379DA734BF}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{19E68969-959B-4F5D-A5E1-BA4D41AAE7E4}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{CB6BB0AE-7466-4907-AA29-E143DCD690B9}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{1E687F97-B50F-40C2-8412-05F183D128EC}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{F068BA8A-3D17-4FA9-8E23-4A386C881029}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{38676F11-EA2B-4241-A4A9-E3952A6C959B}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{A2FDC555-6946-4BB0-9E0B-719B3C430B03}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{185D3151-90EA-411B-933C-4D67AD6B2A8D}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://energy-instrat-api.azurewebsites.net/api/prices/co2" xr:uid="{411A9C9F-4C29-44BA-B867-C47810983CD6}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_daily" xr:uid="{EE5F9FD7-AACA-4B2A-8238-9C45EABB2EB1}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rdn_hourly" xr:uid="{B9BC5738-E6B6-4586-8BB7-B81C15979FD6}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rtt" xr:uid="{2C6769B1-E5C8-41C6-B6F3-AF070EDBEE23}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://energy-instrat-api.azurewebsites.net/api/prices/energy_price_rtt_export" xr:uid="{63A7F9D1-AF21-4BAE-8799-D986A46F7DB3}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://energy-instrat-api.azurewebsites.net/api/prices/gas_price_rdn_daily" xr:uid="{24C78198-A4B3-4DED-BB3C-FE379DA734BF}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://energy-instrat-api.azurewebsites.net/api/prices/gas_price_rtt" xr:uid="{19E68969-959B-4F5D-A5E1-BA4D41AAE7E4}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://energy-instrat-api.azurewebsites.net/api/energy/production_per_fuel_entsoe" xr:uid="{CB6BB0AE-7466-4907-AA29-E143DCD690B9}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://energy-instrat-api.azurewebsites.net/api/energy/production_per_fuel_are" xr:uid="{1E687F97-B50F-40C2-8412-05F183D128EC}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://energy-instrat-api.azurewebsites.net/api/energy/load" xr:uid="{F068BA8A-3D17-4FA9-8E23-4A386C881029}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://energy-instrat-api.azurewebsites.net/api/energy/energy_non_emissive_percentage" xr:uid="{38676F11-EA2B-4241-A4A9-E3952A6C959B}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://energy-instrat-api.azurewebsites.net/api/energy/installed_capacity_are" xr:uid="{A2FDC555-6946-4BB0-9E0B-719B3C430B03}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://energy-instrat-api.azurewebsites.net/api/energy/installed_capacity_entsoe" xr:uid="{185D3151-90EA-411B-933C-4D67AD6B2A8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
